--- a/tests/testthat/types.xlsx
+++ b/tests/testthat/types.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomask/Documents/Soziologie/R/R-Packages/forked pkges/readxl/tests/testthat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24800" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130406" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,12 +45,18 @@
     <t>ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>string_at_102</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -80,10 +91,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -406,17 +422,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +445,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,9 +463,8 @@
         <v>38717</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
-        <f>1+0</f>
         <v>1</v>
       </c>
       <c r="B3" t="str">
@@ -462,14 +480,506 @@
         <v>38717</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>